--- a/data/fakecsv/dept_NFLX.xlsx
+++ b/data/fakecsv/dept_NFLX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="105">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,280 +40,268 @@
     <t>NFLX</t>
   </si>
   <si>
-    <t>Z1B399V657SKGXBEA</t>
-  </si>
-  <si>
-    <t>2S4V2Z5M608J9HAWR</t>
-  </si>
-  <si>
-    <t>NN3TM8H03VYHSRC2C</t>
-  </si>
-  <si>
-    <t>YPSBLLW00KHYJ1P0R</t>
-  </si>
-  <si>
-    <t>MW99A86T3EPM5UTGE</t>
-  </si>
-  <si>
-    <t>VYXB41BV0D34L7VS4</t>
-  </si>
-  <si>
-    <t>KFZ5V5BG7PZL3U8EK</t>
-  </si>
-  <si>
-    <t>GTEY6KY75MHC8KT63</t>
-  </si>
-  <si>
-    <t>9LPZNKYZ0JSW9DJ3Z</t>
-  </si>
-  <si>
-    <t>5L3ES6CZXFMU5BK5X</t>
-  </si>
-  <si>
-    <t>39CDUUCM31D4MSKH5</t>
-  </si>
-  <si>
-    <t>BGVJFVAZ9T72SK0N9</t>
-  </si>
-  <si>
-    <t>DXMG3LVK7PXSJB7CS</t>
-  </si>
-  <si>
-    <t>8K5PPNM99FY1BG8T9</t>
-  </si>
-  <si>
-    <t>2UHKGWGN29YYDXGBA</t>
-  </si>
-  <si>
-    <t>UNR7W64J4RRFKWRRH</t>
-  </si>
-  <si>
-    <t>RST6C89G0L5VZTF2X</t>
-  </si>
-  <si>
-    <t>D3832P3E9YF0LZL6J</t>
-  </si>
-  <si>
-    <t>CCS1ZAZG7B0FM684F</t>
-  </si>
-  <si>
-    <t>8A6SYVS44Y2URZHA4</t>
-  </si>
-  <si>
-    <t>W5JTASPK5TTJ8XRR8</t>
-  </si>
-  <si>
-    <t>H6VJR1F91GJXHYPAD</t>
-  </si>
-  <si>
-    <t>D3VYR5989MKB6TF38</t>
-  </si>
-  <si>
-    <t>8W2BKKBX44EMW761B</t>
-  </si>
-  <si>
-    <t>UGJBNG813MVM2GPFH</t>
-  </si>
-  <si>
-    <t>JPZ6U3ECXY05PBKJD</t>
-  </si>
-  <si>
-    <t>AW42G9ZM1MW47VKTK</t>
-  </si>
-  <si>
-    <t>AT1LSCKK6W71F97NB</t>
-  </si>
-  <si>
-    <t>MRXNUDDK6NY0319KV</t>
-  </si>
-  <si>
-    <t>SH8X2MZB7K2E8F8F2</t>
-  </si>
-  <si>
-    <t>VGYCU7H71ZAAK0CU6</t>
-  </si>
-  <si>
-    <t>BR0474SZ0CS3UDSXS</t>
-  </si>
-  <si>
-    <t>9TH639ZR5EYM3DKG0</t>
-  </si>
-  <si>
-    <t>C7UKXVCR266W4CBBE</t>
-  </si>
-  <si>
-    <t>JRT9EHCFXXCW6AZN9</t>
-  </si>
-  <si>
-    <t>JJGUVUGG4J45WD3NS</t>
-  </si>
-  <si>
-    <t>NM9LKMRS8VSD17AJC</t>
-  </si>
-  <si>
-    <t>4SXFTEKTX684CCR40</t>
-  </si>
-  <si>
-    <t>RR2XTB3H2RJZV5ZH5</t>
-  </si>
-  <si>
-    <t>PZ95EVY53ME0L50GK</t>
-  </si>
-  <si>
-    <t>WE0G4NW67M2G6UMA3</t>
-  </si>
-  <si>
-    <t>YS1MDU9H06XRTXAJE</t>
-  </si>
-  <si>
-    <t>XHE4GM483K2NLXEPF</t>
-  </si>
-  <si>
-    <t>NSFUYVW2073872UPM</t>
-  </si>
-  <si>
-    <t>9Y0VPWNA7LPC5AADZ</t>
-  </si>
-  <si>
-    <t>6RT3UH7V8AJPF69NL</t>
-  </si>
-  <si>
-    <t>Cindy Anderson</t>
-  </si>
-  <si>
-    <t>Edwin Dougherty</t>
-  </si>
-  <si>
-    <t>Christopher Fitzgerald</t>
-  </si>
-  <si>
-    <t>Megan Farmer</t>
-  </si>
-  <si>
-    <t>Mr. James Dean</t>
-  </si>
-  <si>
-    <t>Dennis Adams</t>
-  </si>
-  <si>
-    <t>Debra Johnson</t>
-  </si>
-  <si>
-    <t>Jason Brandt</t>
-  </si>
-  <si>
-    <t>Kathleen French</t>
-  </si>
-  <si>
-    <t>Elizabeth Hamilton</t>
-  </si>
-  <si>
-    <t>Jacob Gutierrez</t>
-  </si>
-  <si>
-    <t>Chad Reilly</t>
-  </si>
-  <si>
-    <t>Shawn Hayes</t>
-  </si>
-  <si>
-    <t>David Henry</t>
-  </si>
-  <si>
-    <t>Sarah Campbell</t>
-  </si>
-  <si>
-    <t>David Dominguez</t>
-  </si>
-  <si>
-    <t>Daniel Meadows</t>
-  </si>
-  <si>
-    <t>Michele Mckay</t>
-  </si>
-  <si>
-    <t>Laura Patton</t>
-  </si>
-  <si>
-    <t>Katherine Jackson</t>
-  </si>
-  <si>
-    <t>Nicole Freeman</t>
-  </si>
-  <si>
-    <t>Elizabeth Stevens</t>
-  </si>
-  <si>
-    <t>Jaclyn Moore</t>
-  </si>
-  <si>
-    <t>David Edwards</t>
-  </si>
-  <si>
-    <t>Lindsay Williams</t>
-  </si>
-  <si>
-    <t>Jennifer Rowe</t>
-  </si>
-  <si>
-    <t>James Chambers</t>
-  </si>
-  <si>
-    <t>Kimberly Diaz</t>
-  </si>
-  <si>
-    <t>Laura Oneill</t>
-  </si>
-  <si>
-    <t>Michael Ibarra</t>
-  </si>
-  <si>
-    <t>Barry Davis</t>
-  </si>
-  <si>
-    <t>Brian Lee</t>
-  </si>
-  <si>
-    <t>Patricia Ramirez</t>
-  </si>
-  <si>
-    <t>Todd Long</t>
-  </si>
-  <si>
-    <t>Julia Welch</t>
-  </si>
-  <si>
-    <t>George Ibarra</t>
-  </si>
-  <si>
-    <t>George Fowler</t>
-  </si>
-  <si>
-    <t>Bobby Thompson</t>
-  </si>
-  <si>
-    <t>Joshua Clark</t>
-  </si>
-  <si>
-    <t>Michaela Cole</t>
-  </si>
-  <si>
-    <t>Bailey Mason</t>
-  </si>
-  <si>
-    <t>Nicholas Austin</t>
-  </si>
-  <si>
-    <t>Robert Russell</t>
-  </si>
-  <si>
-    <t>Alexa Johnson</t>
-  </si>
-  <si>
-    <t>Anna Williams</t>
-  </si>
-  <si>
-    <t>Jay Mcguire</t>
+    <t>R94Y1YZ54L2GEB75Z</t>
+  </si>
+  <si>
+    <t>D45AU9BJ8MHPGJHXX</t>
+  </si>
+  <si>
+    <t>0ZPYWF9C3LBW2DGUR</t>
+  </si>
+  <si>
+    <t>5UH1T9DU4XXNGEGJ3</t>
+  </si>
+  <si>
+    <t>SUJ3KYWN917SAP1WH</t>
+  </si>
+  <si>
+    <t>PL52L22V2J057CBTG</t>
+  </si>
+  <si>
+    <t>6ZU80HDT62TJ4YJ7H</t>
+  </si>
+  <si>
+    <t>TE4PXLRB6MPWKDC5H</t>
+  </si>
+  <si>
+    <t>8598R90R674UL3VZ9</t>
+  </si>
+  <si>
+    <t>RJFXHV115KP48FVDA</t>
+  </si>
+  <si>
+    <t>2MCD5CUD8GZM0LX3D</t>
+  </si>
+  <si>
+    <t>1SLHJNVJ0J90779DY</t>
+  </si>
+  <si>
+    <t>TVCX5D9X7MX11F2E1</t>
+  </si>
+  <si>
+    <t>LZA6SSH01XLJRKTS1</t>
+  </si>
+  <si>
+    <t>29KF6B790HPZYCKBH</t>
+  </si>
+  <si>
+    <t>RFLZFU2P6JE4N0X2R</t>
+  </si>
+  <si>
+    <t>LL9YYU0P4CBC4JYBY</t>
+  </si>
+  <si>
+    <t>5YNTV0XM66WA2LKC6</t>
+  </si>
+  <si>
+    <t>R6H40NEU4T8E3SJD8</t>
+  </si>
+  <si>
+    <t>V9T5C7BG31P4D4HTW</t>
+  </si>
+  <si>
+    <t>NCKBSK7Y01BUL3XWR</t>
+  </si>
+  <si>
+    <t>X0W8KUTUXH5V4FSNT</t>
+  </si>
+  <si>
+    <t>HSGVFDPR73XJDVCGW</t>
+  </si>
+  <si>
+    <t>WEZREJD92HLBG8HTY</t>
+  </si>
+  <si>
+    <t>95MK1AAH33NBP30UD</t>
+  </si>
+  <si>
+    <t>MP99SNM84JKTGHV4K</t>
+  </si>
+  <si>
+    <t>6824HH3B3DNFE3XRR</t>
+  </si>
+  <si>
+    <t>987E0H186K7MVTWMC</t>
+  </si>
+  <si>
+    <t>P6X9P4F89XJVX49B5</t>
+  </si>
+  <si>
+    <t>VUR8ZGKW63ELPF1NL</t>
+  </si>
+  <si>
+    <t>TMTPJV7J1VG5SUTVV</t>
+  </si>
+  <si>
+    <t>ZZFX5DPA8NA6D42RW</t>
+  </si>
+  <si>
+    <t>5KVGRVCD65TK6HUEZ</t>
+  </si>
+  <si>
+    <t>WSS3RDWU5S0X1VRVD</t>
+  </si>
+  <si>
+    <t>9PAYK0W303Y58D4Y0</t>
+  </si>
+  <si>
+    <t>0YKDT29T8N2LJ7KAL</t>
+  </si>
+  <si>
+    <t>8SA21B811YCYV1GUR</t>
+  </si>
+  <si>
+    <t>2XFL84451HL5HPHWP</t>
+  </si>
+  <si>
+    <t>30UUSEH358MUW3ZCX</t>
+  </si>
+  <si>
+    <t>GPWE4H2J4K85CMYW4</t>
+  </si>
+  <si>
+    <t>PH7ASURF6PPBJD2W2</t>
+  </si>
+  <si>
+    <t>ZB1HE31W8REDVE1W5</t>
+  </si>
+  <si>
+    <t>NAKHFD03XZSV2X39F</t>
+  </si>
+  <si>
+    <t>1C31SHJ19RC1LZ6MN</t>
+  </si>
+  <si>
+    <t>Matthew Page</t>
+  </si>
+  <si>
+    <t>Michael Thompson</t>
+  </si>
+  <si>
+    <t>Katherine Gardner</t>
+  </si>
+  <si>
+    <t>Debra Scott</t>
+  </si>
+  <si>
+    <t>Ronnie Thomas</t>
+  </si>
+  <si>
+    <t>Kayla Cooper</t>
+  </si>
+  <si>
+    <t>Matthew Young</t>
+  </si>
+  <si>
+    <t>Kenneth Andrews</t>
+  </si>
+  <si>
+    <t>Thomas Simon</t>
+  </si>
+  <si>
+    <t>Patrick Barnes</t>
+  </si>
+  <si>
+    <t>Joshua Cline</t>
+  </si>
+  <si>
+    <t>Rachel Hancock</t>
+  </si>
+  <si>
+    <t>Theodore Moore</t>
+  </si>
+  <si>
+    <t>Jessica Hall</t>
+  </si>
+  <si>
+    <t>Laurie Martin</t>
+  </si>
+  <si>
+    <t>Evelyn Lowe</t>
+  </si>
+  <si>
+    <t>Jason Bauer</t>
+  </si>
+  <si>
+    <t>Nicole Chase</t>
+  </si>
+  <si>
+    <t>Lisa Young</t>
+  </si>
+  <si>
+    <t>Gina Ortiz</t>
+  </si>
+  <si>
+    <t>Kristine Benton</t>
+  </si>
+  <si>
+    <t>Jason Johnson</t>
+  </si>
+  <si>
+    <t>Maria Arnold</t>
+  </si>
+  <si>
+    <t>Megan Palmer</t>
+  </si>
+  <si>
+    <t>Lisa Jarvis</t>
+  </si>
+  <si>
+    <t>Devon Adams</t>
+  </si>
+  <si>
+    <t>Blake Duncan</t>
+  </si>
+  <si>
+    <t>Tonya Hart</t>
+  </si>
+  <si>
+    <t>Diamond James</t>
+  </si>
+  <si>
+    <t>Kenneth Williams</t>
+  </si>
+  <si>
+    <t>Melinda Bell</t>
+  </si>
+  <si>
+    <t>Ashley Keller</t>
+  </si>
+  <si>
+    <t>Maria Green</t>
+  </si>
+  <si>
+    <t>Dr. Jennifer Johnson</t>
+  </si>
+  <si>
+    <t>Christopher Henson</t>
+  </si>
+  <si>
+    <t>Matthew Hamilton</t>
+  </si>
+  <si>
+    <t>Daniel Perez</t>
+  </si>
+  <si>
+    <t>Nicole Barry</t>
+  </si>
+  <si>
+    <t>Misty Lucas</t>
+  </si>
+  <si>
+    <t>Timothy Mcdonald</t>
+  </si>
+  <si>
+    <t>Nicole Hurst</t>
+  </si>
+  <si>
+    <t>Lisa Waters</t>
+  </si>
+  <si>
+    <t>Andrea Stout</t>
+  </si>
+  <si>
+    <t>Morgan Sanchez</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -698,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -752,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,13 +754,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -783,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -800,13 +788,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,13 +822,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -851,13 +839,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,13 +856,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -885,13 +873,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -902,13 +890,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,13 +907,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,13 +924,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,13 +941,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,13 +958,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,13 +975,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +992,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,13 +1009,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,13 +1026,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,13 +1094,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,13 +1111,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,13 +1128,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,13 +1145,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,13 +1196,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,13 +1230,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1276,13 +1264,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,13 +1281,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1310,13 +1298,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1327,13 +1315,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1344,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,13 +1349,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1378,13 +1366,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1395,13 +1383,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1412,13 +1400,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1429,13 +1417,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1449,10 +1437,10 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1466,10 +1454,10 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1483,10 +1471,10 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1497,13 +1485,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1514,13 +1502,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1534,10 +1522,10 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1551,10 +1539,10 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1568,10 +1556,10 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1585,10 +1573,10 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1599,13 +1587,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1619,10 +1607,10 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1636,10 +1624,10 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1653,10 +1641,10 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1670,10 +1658,10 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1684,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1704,10 +1692,10 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1721,10 +1709,10 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1738,10 +1726,10 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1752,13 +1740,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1769,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1789,10 +1777,10 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1806,10 +1794,10 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1823,10 +1811,10 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1840,10 +1828,10 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1857,10 +1845,10 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1871,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1888,13 +1876,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1905,13 +1893,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1925,10 +1913,10 @@
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1942,10 +1930,10 @@
         <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1956,13 +1944,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1973,13 +1961,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1990,13 +1978,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2007,13 +1995,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
         <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2024,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
         <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2041,13 +2029,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
         <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2058,13 +2046,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2075,13 +2063,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2092,13 +2080,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2109,13 +2097,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2126,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
         <v>69</v>
@@ -2143,13 +2131,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2160,13 +2148,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2177,13 +2165,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
         <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2194,13 +2182,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2211,13 +2199,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2228,13 +2216,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2245,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2262,13 +2250,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2279,13 +2267,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2296,13 +2284,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2313,13 +2301,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2330,13 +2318,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
         <v>71</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2347,13 +2335,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2364,13 +2352,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2381,13 +2369,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2398,13 +2386,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2415,13 +2403,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
         <v>72</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2432,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D102" t="s">
         <v>72</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2449,13 +2437,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
         <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2466,13 +2454,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2483,13 +2471,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2500,13 +2488,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2517,13 +2505,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2534,13 +2522,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
         <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2551,13 +2539,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
         <v>73</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2568,13 +2556,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E110" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2588,10 +2576,10 @@
         <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2605,10 +2593,10 @@
         <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2622,10 +2610,10 @@
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2639,10 +2627,10 @@
         <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2656,10 +2644,10 @@
         <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2670,13 +2658,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2690,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E117" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2704,13 +2692,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E118" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2721,13 +2709,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E119" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2741,10 +2729,10 @@
         <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2758,10 +2746,10 @@
         <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2772,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E122" t="s">
         <v>100</v>
@@ -2789,10 +2777,10 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E123" t="s">
         <v>101</v>
@@ -2809,10 +2797,10 @@
         <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E124" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2826,10 +2814,10 @@
         <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E125" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2840,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2857,13 +2845,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D127" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E127" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2874,13 +2862,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E128" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2891,13 +2879,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E129" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2908,13 +2896,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E130" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2925,13 +2913,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E131" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2942,13 +2930,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E132" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2959,13 +2947,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E133" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2976,13 +2964,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D134" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E134" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2993,13 +2981,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3010,13 +2998,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E136" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3030,10 +3018,10 @@
         <v>34</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E137" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3044,13 +3032,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E138" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3061,13 +3049,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E139" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3078,13 +3066,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3095,13 +3083,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E141" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3112,13 +3100,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E142" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3129,13 +3117,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E143" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3146,13 +3134,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3163,13 +3151,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3180,13 +3168,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E146" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3197,13 +3185,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D147" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3214,13 +3202,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D148" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E148" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3231,13 +3219,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E149" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3248,13 +3236,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3265,13 +3253,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E151" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3282,13 +3270,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E152" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3299,13 +3287,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E153" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3316,13 +3304,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D154" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E154" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3333,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D155" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3350,13 +3338,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D156" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3367,13 +3355,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D157" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E157" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3384,13 +3372,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D158" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E158" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3401,13 +3389,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D159" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E159" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3418,13 +3406,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E160" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3435,13 +3423,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3452,13 +3440,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D162" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3469,13 +3457,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E163" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3486,13 +3474,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3503,13 +3491,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3523,10 +3511,10 @@
         <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E166" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3537,13 +3525,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E167" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3554,13 +3542,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E168" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3571,13 +3559,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E169" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3588,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E170" t="s">
         <v>100</v>
@@ -3605,10 +3593,10 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E171" t="s">
         <v>101</v>
@@ -3622,10 +3610,10 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E172" t="s">
         <v>102</v>
@@ -3639,13 +3627,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3656,13 +3644,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3673,13 +3661,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E175" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3690,13 +3678,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E176" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3707,13 +3695,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E177" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3724,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D178" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E178" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3741,13 +3729,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D179" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E179" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3758,13 +3746,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D180" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E180" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3775,13 +3763,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E181" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3792,13 +3780,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D182" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E182" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3809,13 +3797,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D183" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E183" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3826,13 +3814,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E184" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3843,13 +3831,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D185" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E185" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3860,13 +3848,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D186" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E186" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3877,13 +3865,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D187" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E187" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3894,13 +3882,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D188" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E188" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3911,13 +3899,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D189" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E189" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3928,13 +3916,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D190" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E190" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3945,13 +3933,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D191" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E191" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3962,13 +3950,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D192" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E192" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3979,13 +3967,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E193" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3996,13 +3984,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D194" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E194" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4013,13 +4001,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D195" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E195" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4030,13 +4018,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D196" t="s">
+        <v>91</v>
+      </c>
+      <c r="E196" t="s">
         <v>96</v>
-      </c>
-      <c r="E196" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4047,13 +4035,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D197" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E197" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4064,13 +4052,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D198" t="s">
+        <v>92</v>
+      </c>
+      <c r="E198" t="s">
         <v>96</v>
-      </c>
-      <c r="E198" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4081,13 +4069,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D199" t="s">
+        <v>93</v>
+      </c>
+      <c r="E199" t="s">
         <v>96</v>
-      </c>
-      <c r="E199" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4101,10 +4089,10 @@
         <v>50</v>
       </c>
       <c r="D200" t="s">
+        <v>94</v>
+      </c>
+      <c r="E200" t="s">
         <v>96</v>
-      </c>
-      <c r="E200" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4118,10 +4106,10 @@
         <v>50</v>
       </c>
       <c r="D201" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E201" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4135,10 +4123,10 @@
         <v>50</v>
       </c>
       <c r="D202" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E202" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4152,10 +4140,10 @@
         <v>50</v>
       </c>
       <c r="D203" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E203" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4166,10 +4154,10 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D204" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E204" t="s">
         <v>100</v>
@@ -4183,10 +4171,10 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D205" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E205" t="s">
         <v>101</v>
@@ -4200,13 +4188,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D206" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E206" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4217,13 +4205,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D207" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E207" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4234,13 +4222,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D208" t="s">
+        <v>95</v>
+      </c>
+      <c r="E208" t="s">
         <v>98</v>
-      </c>
-      <c r="E208" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4251,13 +4239,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D209" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E209" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4268,13 +4256,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D210" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E210" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4285,13 +4273,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D211" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E211" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4302,13 +4290,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D212" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E212" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4319,13 +4307,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D213" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E213" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4336,115 +4324,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D214" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E214" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>53</v>
-      </c>
-      <c r="D215" t="s">
-        <v>99</v>
-      </c>
-      <c r="E215" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>53</v>
-      </c>
-      <c r="D216" t="s">
-        <v>99</v>
-      </c>
-      <c r="E216" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>53</v>
-      </c>
-      <c r="D217" t="s">
-        <v>99</v>
-      </c>
-      <c r="E217" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>53</v>
-      </c>
-      <c r="D218" t="s">
-        <v>99</v>
-      </c>
-      <c r="E218" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>53</v>
-      </c>
-      <c r="D219" t="s">
-        <v>99</v>
-      </c>
-      <c r="E219" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>53</v>
-      </c>
-      <c r="D220" t="s">
-        <v>99</v>
-      </c>
-      <c r="E220" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
